--- a/TestFiles/sample23/words/word_4.xlsx
+++ b/TestFiles/sample23/words/word_4.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4638664500000003</v>
+        <v>0.4638664499999994</v>
       </c>
       <c r="B2">
-        <v>0.5801096499999998</v>
+        <v>0.5801096499999989</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7082515500000008</v>
+        <v>0.70825155</v>
       </c>
       <c r="B3">
-        <v>0.8083355499999998</v>
+        <v>0.8083355499999989</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9120962500000003</v>
+        <v>0.9120962499999994</v>
       </c>
       <c r="B4">
-        <v>1.00810565</v>
+        <v>1.008105649999999</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.112383050000001</v>
+        <v>1.11238305</v>
       </c>
       <c r="B5">
-        <v>1.19613435</v>
+        <v>1.196134349999999</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
